--- a/inst/lib_adduct_conv_210528.xlsx
+++ b/inst/lib_adduct_conv_210528.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_r_package\MetaboChemTool\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DF82C4-E62E-4E7D-994E-13039972C7C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CCE6E0-68DA-4F60-8E2D-2470512EDABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <t>Tool</t>
   </si>
@@ -535,6 +535,9 @@
   <si>
     <t>2M+Na-2H</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[M+NH3+Cl]-</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A32" sqref="A32:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1723,7 +1726,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
